--- a/Data/Source_data_Fig_2.xlsx
+++ b/Data/Source_data_Fig_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nyulangone-my.sharepoint.com/personal/yuanhao_wu_nyulangone_org/Documents/Prestim_fMRI_Wu_2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yh520/NatCommun_Wu2024/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_26235C8205E0E694977D735D89CA5E3D60FB705B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B58340-2E04-8B42-970B-B95E95DF97BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA317599-2144-E649-98AF-D406AE68D162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8520" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="criterion_vmPFC" sheetId="1" r:id="rId1"/>
@@ -44,19 +44,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="5">
   <si>
     <t>Sub ID</t>
   </si>
   <si>
     <t>Trial group</t>
   </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -76,6 +85,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -131,11 +152,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,7 +187,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -318,7 +361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -479,539 +522,618 @@
     <col min="1" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
       <c r="E2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.36662048000000003</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.39918607</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3560817</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.43863343999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.43031891999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>0.5884064</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.69002819999999998</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.66612417000000002</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.70515686</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.64472419999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.46129417</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.4953593</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.55479025999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.62071679999999996</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.6529682</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.58897469999999996</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.59021115000000002</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.60254989999999997</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.60902469999999997</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.61625589999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>3.3192395999999999E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-3.6879719999999998E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-3.4114103999999998E-3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.0617854000000002E-3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.16048902000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>0.53579779999999999</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.57146006999999999</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.59119010000000005</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.61368140000000004</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.59398269999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.29022150000000002</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.41242760000000001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.43752456000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.52043890000000004</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.52172834000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>-0.55134799999999995</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.56418586000000004</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.50592643000000004</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.4435944</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.33502933000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0.40097776000000002</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.31373253000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.32956419999999997</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.39522763999999999</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.58949359999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>0.509521</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.65541729999999998</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.68538619999999995</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.6886544</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.70284000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>-9.6275575000000002E-2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-1.2839442E-2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7.0474274000000003E-2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.108927116</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.100406334</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>1.8848271999999999E-2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.13733964000000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.21056351000000001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.20435633</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.17553774</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.30601840000000002</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.28500172000000001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.29525414</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.36051870000000003</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.40399541999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>0.70674700000000001</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.67175940000000001</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.67469679999999999</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.66805970000000003</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.67989670000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.99696989999999996</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.87806344000000003</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.79448026000000005</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.82600989999999996</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.97254014</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>9.1785989999999998E-2</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.23155333</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.30004262999999998</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.28977940000000002</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.30718561999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>-0.1144969</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-8.4954100000000005E-2</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-6.7166879999999998E-2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-2.5594720000000001E-2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2.2457010999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.50362337000000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.51673263000000003</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.53677989999999998</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.60859286999999995</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.56490015999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>0.72802997000000003</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.73913085000000001</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.74476313999999999</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.74602824000000001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.77505729999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>0.10408081</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.13767009999999999</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.20492345000000001</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2705456</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.31501810000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>8.8490100000000002E-2</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.28186070000000002</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.26470443999999999</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.28053244999999999</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.41616866000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>0.13062486000000001</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.19379489999999999</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.22068578</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.28396785000000002</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.34951735</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.62534325999999996</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.65890234999999997</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.68766134999999995</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.74648979999999998</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.83427863999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>37</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>-1.9195637000000002E-2</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4.66303E-2</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>3.7088383000000003E-2</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.10601345</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.15473772999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>38</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>-0.44907963000000001</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.41109364999999998</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-0.37863466000000001</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-0.36405527999999998</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-0.40188947000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1020,551 +1142,629 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1026" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
       <c r="E2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.59849419999999998</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3">
         <v>0.59900330000000002</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3">
         <v>0.55902629999999998</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3">
         <v>0.47977638</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3">
         <v>0.42624676</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>0.84480770000000005</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4">
         <v>0.74503266999999995</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4">
         <v>0.69317377000000002</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4">
         <v>0.61626696999999997</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4">
         <v>0.51175190000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.62606340000000005</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5">
         <v>0.55821746999999999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5">
         <v>0.54169489999999998</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5">
         <v>0.53652173000000003</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5">
         <v>0.50472550000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.70225954000000002</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6">
         <v>0.66116710000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6">
         <v>0.60587290000000005</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6">
         <v>0.58220494</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6">
         <v>0.46742224999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0.21362829999999999</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7">
         <v>8.7310440000000003E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7">
         <v>5.166536E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7">
         <v>-4.1081760000000002E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7">
         <v>-0.17281534000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>0.71781015000000004</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8">
         <v>0.62947445999999996</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8">
         <v>0.58394486000000001</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8">
         <v>0.54746216999999997</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8">
         <v>0.46243580000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.41818752999999997</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9">
         <v>0.45935598</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9">
         <v>0.46618199999999999</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9">
         <v>0.47910399999999997</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9">
         <v>0.37979259999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>-0.40126726000000001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10">
         <v>-0.47085695999999999</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10">
         <v>-0.48221894999999998</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10">
         <v>-0.52891370000000004</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10">
         <v>-0.51062744999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0.5770187</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11">
         <v>0.42217644999999998</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11">
         <v>0.39449202999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11">
         <v>0.38124441999999997</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11">
         <v>0.31966709999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>0.65680210000000006</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12">
         <v>0.64156809999999997</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12">
         <v>0.65675709999999998</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12">
         <v>0.64867370000000002</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12">
         <v>0.65183610000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>0.14277635999999999</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13">
         <v>7.6581985000000005E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13">
         <v>2.9709391000000002E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13">
         <v>-1.7122680000000001E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13">
         <v>-8.0568490000000006E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>0.23578656000000001</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14">
         <v>0.19176478999999999</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14">
         <v>0.15280933999999999</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14">
         <v>0.13489507000000001</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14">
         <v>4.4964052999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.36973223</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15">
         <v>0.36676599999999998</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15">
         <v>0.36806457999999997</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15">
         <v>0.34640710000000002</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15">
         <v>0.24017762000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>0.73983383000000003</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16">
         <v>0.72980009999999995</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16">
         <v>0.68794124999999995</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16">
         <v>0.63513980000000003</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16">
         <v>0.59787846</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>25</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>1.0568386000000001</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17">
         <v>0.92765343</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E17">
         <v>0.84752059999999996</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17">
         <v>0.83264046999999997</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17">
         <v>0.82212320000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>26</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>0.30540514000000002</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18">
         <v>0.2352023</v>
       </c>
-      <c r="D18" s="7">
+      <c r="E18">
         <v>0.22075172000000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18">
         <v>0.22191330000000001</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18">
         <v>0.20969056</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>29</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>-2.5742956000000001E-2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19">
         <v>-2.1905813E-2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19">
         <v>-4.2214155000000003E-2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19">
         <v>-5.1724686999999998E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19">
         <v>-9.8256590000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>30</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.56747990000000004</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20">
         <v>0.53573150000000003</v>
       </c>
-      <c r="D20" s="7">
+      <c r="E20">
         <v>0.54729729999999999</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20">
         <v>0.55583364000000002</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20">
         <v>0.51599810000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>31</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>0.77727930000000001</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21">
         <v>0.7507142</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E21">
         <v>0.73702055</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21">
         <v>0.73385124999999995</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21">
         <v>0.73156595000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>32</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>0.27346369999999998</v>
       </c>
-      <c r="C22" s="7">
+      <c r="D22">
         <v>0.22317679000000001</v>
       </c>
-      <c r="D22" s="7">
+      <c r="E22">
         <v>0.19685142</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22">
         <v>0.1663502</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22">
         <v>0.16612312000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>33</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>0.14984939999999999</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D23">
         <v>0.31788495</v>
       </c>
-      <c r="D23" s="7">
+      <c r="E23">
         <v>0.3066277</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23">
         <v>0.30957760000000001</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23">
         <v>0.25963172000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>34</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>0.16385116</v>
       </c>
-      <c r="C24" s="7">
+      <c r="D24">
         <v>0.29565677000000001</v>
       </c>
-      <c r="D24" s="7">
+      <c r="E24">
         <v>0.25792261999999999</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24">
         <v>0.2368876</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24">
         <v>0.24125873</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>35</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.85154366000000004</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25">
         <v>0.77056820000000004</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E25">
         <v>0.6803496</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25">
         <v>0.62430079999999999</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25">
         <v>0.63365700000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>37</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>7.2321880000000005E-2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="D26">
         <v>0.14486869999999999</v>
       </c>
-      <c r="D26" s="7">
+      <c r="E26">
         <v>0.10768688999999999</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26">
         <v>6.8080970000000005E-2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26">
         <v>-5.4039665000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>38</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>-0.35737246</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27">
         <v>-0.36542237</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27">
         <v>-0.36637526999999998</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27">
         <v>-0.39904672000000002</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27">
         <v>-0.51311063999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1573,551 +1773,629 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="B27" sqref="B1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1026" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
       <c r="E2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.38821270000000002</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3">
         <v>0.54030745999999996</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3">
         <v>0.58015810000000001</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3">
         <v>0.57779709999999995</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3">
         <v>0.56993590000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>0.55736280000000005</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4">
         <v>0.6847316</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4">
         <v>0.72184305999999998</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4">
         <v>0.74575150000000001</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4">
         <v>0.71443199999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.43166642999999999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5">
         <v>0.55346260000000003</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5">
         <v>0.57559174000000002</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5">
         <v>0.59969497000000005</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5">
         <v>0.60048939999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.36565756999999999</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6">
         <v>0.54857372999999998</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6">
         <v>0.65977067</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6">
         <v>0.70135709999999996</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6">
         <v>0.75739429999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>-4.1936411999999998E-3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7">
         <v>1.5705857E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7">
         <v>1.31951E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7">
         <v>5.0184100000000002E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7">
         <v>8.8396180000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>0.56828575999999997</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8">
         <v>0.57884734999999998</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8">
         <v>0.55193680000000001</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8">
         <v>0.5662026</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8">
         <v>0.67140789999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.29739260000000001</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9">
         <v>0.42206037000000002</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9">
         <v>0.43479538000000001</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9">
         <v>0.49550696999999999</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9">
         <v>0.50689656000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>-0.53492295999999995</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10">
         <v>-0.53372430000000004</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10">
         <v>-0.51924219999999999</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10">
         <v>-0.45858633999999998</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10">
         <v>-0.34548204999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0.40233847</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11">
         <v>0.42431595999999999</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11">
         <v>0.42904836000000002</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11">
         <v>0.40708509999999998</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11">
         <v>0.44571018000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>0.61993560000000003</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12">
         <v>0.64391209999999999</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12">
         <v>0.65731424000000005</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12">
         <v>0.66314596000000003</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12">
         <v>0.66091040000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>-4.7358273999999999E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13">
         <v>2.5380435999999999E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13">
         <v>5.7705517999999997E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13">
         <v>7.0244550000000003E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13">
         <v>5.2856344999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>0.10480906</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14">
         <v>0.13040519</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14">
         <v>0.14421756999999999</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14">
         <v>0.19707612999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14">
         <v>0.18657333000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.14735735999999999</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15">
         <v>0.35448083000000002</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15">
         <v>0.44440501999999998</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15">
         <v>0.46692719999999999</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15">
         <v>0.29902545000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>0.59431297000000005</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16">
         <v>0.65965339999999995</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16">
         <v>0.69606610000000002</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16">
         <v>0.72514193999999998</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16">
         <v>0.73884090000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>25</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.92765253999999997</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17">
         <v>0.85854430000000004</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E17">
         <v>0.81153920000000002</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17">
         <v>0.87006605000000004</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17">
         <v>1.0355506000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>26</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>0.19294494000000001</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18">
         <v>0.21150768</v>
       </c>
-      <c r="D18" s="7">
+      <c r="E18">
         <v>0.2516892</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18">
         <v>0.27016227999999998</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18">
         <v>0.27251789999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>29</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>-0.15451814</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19">
         <v>-3.9480474000000002E-2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19">
         <v>-2.4812026000000001E-2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19">
         <v>-5.3385630000000002E-3</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19">
         <v>-2.0539854E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>30</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.47010459999999998</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20">
         <v>0.51710940000000005</v>
       </c>
-      <c r="D20" s="7">
+      <c r="E20">
         <v>0.54608809999999997</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20">
         <v>0.57981799999999994</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20">
         <v>0.61535936999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>31</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>0.78058720000000004</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21">
         <v>0.75565254999999998</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E21">
         <v>0.73558210000000002</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21">
         <v>0.73629869999999997</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21">
         <v>0.72542949999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>32</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>0.15893929000000001</v>
       </c>
-      <c r="C22" s="7">
+      <c r="D22">
         <v>0.15207614</v>
       </c>
-      <c r="D22" s="7">
+      <c r="E22">
         <v>0.17638712000000001</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22">
         <v>0.24598544999999999</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22">
         <v>0.32765186000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>33</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>8.6409054999999999E-2</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D23">
         <v>0.24430192000000001</v>
       </c>
-      <c r="D23" s="7">
+      <c r="E23">
         <v>0.26902870000000001</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23">
         <v>0.34932676000000001</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23">
         <v>0.36453574999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>34</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>6.3423679999999996E-2</v>
       </c>
-      <c r="C24" s="7">
+      <c r="D24">
         <v>0.17677862999999999</v>
       </c>
-      <c r="D24" s="7">
+      <c r="E24">
         <v>0.23249431000000001</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24">
         <v>0.30834286999999999</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24">
         <v>0.39680470000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>35</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.70829310000000001</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25">
         <v>0.70401060000000004</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E25">
         <v>0.67078510000000002</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25">
         <v>0.68885909999999995</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25">
         <v>0.77980150000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>37</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>9.6610955999999998E-2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="D26">
         <v>7.1151614000000002E-2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="E26">
         <v>5.3738326000000003E-2</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26">
         <v>8.9158520000000005E-2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26">
         <v>4.4049706000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>38</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>-0.34765610000000002</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27">
         <v>-0.41673827000000002</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27">
         <v>-0.45175423999999997</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27">
         <v>-0.39326534000000002</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27">
         <v>-0.37873659999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2126,551 +2404,629 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="B27" sqref="B1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1026" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
       <c r="E2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.45938116000000001</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3">
         <v>0.56690810000000003</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3">
         <v>0.57225733999999995</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3">
         <v>0.6191432</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3">
         <v>0.43001773999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>0.65085404999999996</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4">
         <v>0.74504669999999995</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4">
         <v>0.72704939999999996</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4">
         <v>0.66463680000000003</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4">
         <v>0.63031464999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.42456054999999998</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5">
         <v>0.51286703</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5">
         <v>0.55841326999999996</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5">
         <v>0.63805800000000001</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5">
         <v>0.71409506</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.44750236999999998</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6">
         <v>0.58058107000000003</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6">
         <v>0.65727409999999997</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6">
         <v>0.68853960000000003</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6">
         <v>0.64227915000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>-5.2698463000000001E-2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7">
         <v>-4.1298420000000002E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7">
         <v>-2.0131581E-4</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7">
         <v>0.111530535</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7">
         <v>0.13722520999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>0.58595359999999996</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8">
         <v>0.56607700000000005</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8">
         <v>0.58959649999999997</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8">
         <v>0.58941480000000002</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8">
         <v>0.60836310000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.25550514000000002</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9">
         <v>0.39334144999999998</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9">
         <v>0.53034939999999997</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9">
         <v>0.49229299999999998</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9">
         <v>0.48084115999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>-0.52038293999999996</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10">
         <v>-0.52425825999999998</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10">
         <v>-0.50429725999999997</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10">
         <v>-0.48097630000000002</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10">
         <v>-0.36237027999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0.46862185000000001</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11">
         <v>0.36560886999999997</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11">
         <v>0.33974864999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11">
         <v>0.37294757000000001</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11">
         <v>0.53431916000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>0.5440931</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12">
         <v>0.60270760000000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12">
         <v>0.66764659999999998</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12">
         <v>0.68229890000000004</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12">
         <v>0.74655099999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>-7.2175349999999999E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13">
         <v>-4.1167799999999997E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13">
         <v>6.9748290000000001E-3</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13">
         <v>0.12877615000000001</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13">
         <v>0.16049278</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>7.9732730000000002E-2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14">
         <v>0.16502810000000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14">
         <v>0.15854314</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14">
         <v>0.20833405999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14">
         <v>0.1327412</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.18926659000000001</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15">
         <v>0.34950315999999998</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15">
         <v>0.38946955999999999</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15">
         <v>0.38536303999999999</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15">
         <v>0.3665407</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>0.63915940000000004</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16">
         <v>0.64730299999999996</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16">
         <v>0.66297494999999995</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16">
         <v>0.7027369</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16">
         <v>0.74882349999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>25</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.86978316</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17">
         <v>0.78205069999999999</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E17">
         <v>0.84683189999999997</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17">
         <v>0.97086079999999997</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17">
         <v>1.0398377000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>26</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>0.116602175</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18">
         <v>0.23959022999999999</v>
       </c>
-      <c r="D18" s="7">
+      <c r="E18">
         <v>0.29239621999999998</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18">
         <v>0.30273643</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18">
         <v>0.27476260000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>29</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>-4.8488980000000001E-2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19">
         <v>-6.1531453999999999E-2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19">
         <v>-6.8574919999999998E-2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19">
         <v>-3.4234654000000003E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19">
         <v>-4.9145620000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>30</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.5317769</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20">
         <v>0.50729864999999996</v>
       </c>
-      <c r="D20" s="7">
+      <c r="E20">
         <v>0.54336070000000003</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20">
         <v>0.57851629999999998</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20">
         <v>0.58393455000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>31</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>0.77064586000000002</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21">
         <v>0.75555689999999998</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E21">
         <v>0.72481739999999995</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21">
         <v>0.74498830000000005</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21">
         <v>0.73799336000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>32</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>4.1843989999999998E-2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="D22">
         <v>6.9630854000000006E-2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="E22">
         <v>0.20206389</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22">
         <v>0.33881220000000001</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22">
         <v>0.5265938</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>33</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>9.1831765999999995E-2</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D23">
         <v>0.26088792</v>
       </c>
-      <c r="D23" s="7">
+      <c r="E23">
         <v>0.33956115999999997</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23">
         <v>0.33775680000000002</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23">
         <v>0.29386770000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>34</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>4.5844045E-2</v>
       </c>
-      <c r="C24" s="7">
+      <c r="D24">
         <v>0.19060208000000001</v>
       </c>
-      <c r="D24" s="7">
+      <c r="E24">
         <v>0.30214039999999998</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24">
         <v>0.39271383999999998</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24">
         <v>0.25357964999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>35</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.70456160000000001</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25">
         <v>0.67893110000000001</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E25">
         <v>0.68583620000000001</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25">
         <v>0.69521299999999997</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25">
         <v>0.77972870000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>37</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>-1.3109262E-2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="D26">
         <v>1.7776898999999999E-2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="E26">
         <v>9.7196699999999997E-2</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26">
         <v>0.19008713999999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26">
         <v>4.9611005999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>38</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>-0.38902956</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27">
         <v>-0.37953189999999998</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27">
         <v>-0.41430175000000002</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27">
         <v>-0.38149830000000001</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27">
         <v>-0.44055516</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2679,551 +3035,629 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1026" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
       <c r="E2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.5024054</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3">
         <v>0.60920770000000002</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3">
         <v>0.55689069999999996</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3">
         <v>0.62391059999999998</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3">
         <v>0.55172060000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>7.3816604999999993E-2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4">
         <v>0.27341130000000002</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4">
         <v>0.28194848</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4">
         <v>0.27375846999999998</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4">
         <v>0.109999545</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.16714676000000001</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5">
         <v>9.1026424999999994E-2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5">
         <v>0.15665966000000001</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5">
         <v>0.25376186000000001</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5">
         <v>0.4516115</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>1.3322107000000001</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6">
         <v>1.3866993000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6">
         <v>1.3291348000000001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6">
         <v>1.3743635000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6">
         <v>1.3244492000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0.43241486000000001</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7">
         <v>0.35611892000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7">
         <v>0.36718650000000003</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7">
         <v>0.37078273</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7">
         <v>0.49158245</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>1.1495055999999999</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8">
         <v>1.3850727</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8">
         <v>1.4984154000000001</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8">
         <v>1.5521069000000001</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8">
         <v>1.49326</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.25563809999999998</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9">
         <v>0.39002383000000002</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9">
         <v>0.51133010000000001</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9">
         <v>0.55084365999999996</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9">
         <v>0.47463378000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>4.6332172999999997E-2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10">
         <v>0.41086167000000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10">
         <v>0.55777010000000005</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10">
         <v>0.70738440000000002</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10">
         <v>0.80311173000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>-2.3193770999999998E-2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11">
         <v>-6.3531509999999999E-2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11">
         <v>6.188163E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11">
         <v>0.13511635</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11">
         <v>0.27965495000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1.1670214000000001</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12">
         <v>1.4660282</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12">
         <v>1.5644718</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12">
         <v>1.66917</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12">
         <v>1.8734791</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>4.5424295000000003E-3</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13">
         <v>5.0494477000000003E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13">
         <v>0.17194313</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13">
         <v>0.37939634999999999</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13">
         <v>0.56968414999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>-8.1466810000000001E-2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14">
         <v>-5.5133662999999999E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14">
         <v>-2.7430598E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14">
         <v>-6.5708934999999996E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14">
         <v>-0.1144362</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.15801008</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15">
         <v>0.20129696</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15">
         <v>0.2689281</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15">
         <v>0.40626677999999999</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15">
         <v>0.38403162000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>0.97212730000000003</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16">
         <v>1.0442366999999999</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16">
         <v>1.0724157000000001</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16">
         <v>1.0552984000000001</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16">
         <v>1.1705781</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>25</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.55845182999999998</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17">
         <v>0.41979875999999999</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E17">
         <v>0.36640437999999997</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17">
         <v>0.41228554000000001</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17">
         <v>0.69482149999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>26</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>0.89094790000000001</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18">
         <v>1.0717325</v>
       </c>
-      <c r="D18" s="7">
+      <c r="E18">
         <v>1.0833478000000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18">
         <v>1.0466126</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18">
         <v>1.2580878</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>29</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>0.85627710000000001</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19">
         <v>0.87959480000000001</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19">
         <v>0.89621870000000003</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19">
         <v>0.92943089999999995</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19">
         <v>1.0224738</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>30</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.70155319999999999</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20">
         <v>0.88202420000000004</v>
       </c>
-      <c r="D20" s="7">
+      <c r="E20">
         <v>0.98068999999999995</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20">
         <v>1.0544738</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20">
         <v>1.0293890999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>31</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>1.6418288999999999</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21">
         <v>1.7373722</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E21">
         <v>1.7994984000000001</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21">
         <v>1.8753656999999999</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21">
         <v>1.9364338999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>32</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>0.56296133999999998</v>
       </c>
-      <c r="C22" s="7">
+      <c r="D22">
         <v>0.62821800000000005</v>
       </c>
-      <c r="D22" s="7">
+      <c r="E22">
         <v>0.75909333999999995</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22">
         <v>0.8676895</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22">
         <v>0.92847109999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>33</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>6.3448823000000001E-3</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D23">
         <v>0.50738627000000003</v>
       </c>
-      <c r="D23" s="7">
+      <c r="E23">
         <v>0.53366999999999998</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23">
         <v>0.64237109999999997</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23">
         <v>0.69516336999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>34</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>3.3986761999999997E-2</v>
       </c>
-      <c r="C24" s="7">
+      <c r="D24">
         <v>0.15958520000000001</v>
       </c>
-      <c r="D24" s="7">
+      <c r="E24">
         <v>0.18435138000000001</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24">
         <v>0.25302966999999998</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24">
         <v>0.18034305</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>35</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.51088356999999995</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25">
         <v>0.58479590000000004</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E25">
         <v>0.61673266000000004</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25">
         <v>0.63765687000000004</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25">
         <v>0.65606814999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>37</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>-0.31134962999999999</v>
       </c>
-      <c r="C26" s="7">
+      <c r="D26">
         <v>-0.18912701000000001</v>
       </c>
-      <c r="D26" s="7">
+      <c r="E26">
         <v>-0.16795439000000001</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26">
         <v>-6.6298670000000004E-2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26">
         <v>8.1951364999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>38</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>0.29716032999999997</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27">
         <v>0.31494418000000002</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27">
         <v>0.40300269999999999</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27">
         <v>0.41666122999999999</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27">
         <v>0.36240517999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3232,551 +3666,629 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1026" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
       <c r="E2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.59724045000000003</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3">
         <v>0.53425449999999997</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3">
         <v>0.64820880000000003</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3">
         <v>0.80201465000000005</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3">
         <v>0.76105803000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>-0.14712914999999999</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4">
         <v>0.16656306000000001</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4">
         <v>0.30559969999999997</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4">
         <v>0.35600130000000002</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4">
         <v>0.34579339999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>8.6178795000000002E-2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5">
         <v>0.14047477999999999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5">
         <v>0.17721487999999999</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5">
         <v>0.25808685999999997</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5">
         <v>0.45838447999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>1.3442586999999999</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6">
         <v>1.3201198999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6">
         <v>1.2783424999999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6">
         <v>1.2310935000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6">
         <v>1.6270450000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0.24304529</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7">
         <v>0.29814004999999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7">
         <v>0.43037277000000002</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7">
         <v>0.55754049999999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7">
         <v>0.52645960000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>1.3869111999999999</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8">
         <v>1.4109286999999999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8">
         <v>1.4479473</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8">
         <v>1.3362445999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8">
         <v>1.503082</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.24515577999999999</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9">
         <v>0.36851302000000002</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9">
         <v>0.51583725000000002</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9">
         <v>0.54177070000000005</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9">
         <v>0.50238704999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>0.23021169</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10">
         <v>0.41135147</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10">
         <v>0.53379244000000003</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10">
         <v>0.65376924999999997</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10">
         <v>0.6491169</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>9.3788153999999999E-2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11">
         <v>7.2268135999999997E-2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11">
         <v>9.2973029999999998E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11">
         <v>0.11093796</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11">
         <v>-9.0781800000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1.3489211000000001</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12">
         <v>1.5153954000000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12">
         <v>1.5535147</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12">
         <v>1.5942152000000001</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12">
         <v>1.7290714</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>9.3212050000000005E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13">
         <v>0.122587286</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13">
         <v>0.20117734000000001</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13">
         <v>0.26351127000000002</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13">
         <v>0.41473254999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>-0.18799447999999999</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14">
         <v>-8.5113763999999995E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14">
         <v>-7.9355806000000001E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14">
         <v>-6.3855969999999998E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14">
         <v>9.5713229999999996E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>-3.0113632000000001E-2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15">
         <v>0.14411967000000001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15">
         <v>0.25480866000000002</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15">
         <v>0.42267817000000002</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15">
         <v>0.62820450000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>0.79236329999999999</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16">
         <v>1.1289959000000001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16">
         <v>1.2394643999999999</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16">
         <v>1.2285010999999999</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16">
         <v>0.94219660000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>25</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.49489355000000002</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17">
         <v>0.43372217000000002</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E17">
         <v>0.42772329999999997</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17">
         <v>0.49970487000000002</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17">
         <v>0.59052320000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>26</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>1.1346102</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18">
         <v>1.0970905</v>
       </c>
-      <c r="D18" s="7">
+      <c r="E18">
         <v>0.97522854999999997</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18">
         <v>0.99769719999999995</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18">
         <v>1.1383103000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>29</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>0.80818789999999996</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19">
         <v>0.86775475999999996</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19">
         <v>0.93530749999999996</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19">
         <v>1.0096338</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19">
         <v>0.9694469</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>30</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.72261059999999999</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20">
         <v>0.94115629999999995</v>
       </c>
-      <c r="D20" s="7">
+      <c r="E20">
         <v>1.0173064000000001</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20">
         <v>1.0396246</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20">
         <v>0.9530613</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>31</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>1.6621813999999999</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21">
         <v>1.6940027</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E21">
         <v>1.7861897</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21">
         <v>1.9181885000000001</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21">
         <v>1.9232208</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>32</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>0.48478080000000001</v>
       </c>
-      <c r="C22" s="7">
+      <c r="D22">
         <v>0.61043570000000003</v>
       </c>
-      <c r="D22" s="7">
+      <c r="E22">
         <v>0.75280636999999995</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22">
         <v>0.86103594000000006</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22">
         <v>0.96844995</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>33</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>1.1063191E-2</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D23">
         <v>0.43736659999999999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="E23">
         <v>0.58777886999999995</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23">
         <v>0.65855070000000004</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23">
         <v>0.73976743</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>34</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>-0.24433278</v>
       </c>
-      <c r="C24" s="7">
+      <c r="D24">
         <v>0.16977138999999999</v>
       </c>
-      <c r="D24" s="7">
+      <c r="E24">
         <v>0.33768776</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24">
         <v>0.36551717</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24">
         <v>0.2447927</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>35</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.43453344999999999</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25">
         <v>0.56493789999999999</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E25">
         <v>0.61874205000000004</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25">
         <v>0.6156182</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25">
         <v>0.77324899999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>37</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>-0.17601895000000001</v>
       </c>
-      <c r="C26" s="7">
+      <c r="D26">
         <v>-6.3184749999999998E-2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="E26">
         <v>-4.6675152999999997E-2</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26">
         <v>2.9612526E-2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26">
         <v>-0.42371305999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>38</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>0.43609667000000002</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27">
         <v>0.39987816999999998</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27">
         <v>0.27688107000000001</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27">
         <v>0.32565539999999998</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27">
         <v>0.37267392999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
